--- a/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Father/3_bordervowels_mfcc_no_ADS_F.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Norwagian/MFCC/Father/3_bordervowels_mfcc_no_ADS_F.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7565.361349496755</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10882.90434389176</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8757.018182028027</v>
+        <v>8757</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10662.19331348829</v>
+        <v>10662</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12454.86401477167</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13708.87175931262</v>
+        <v>13709</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10276.76613920363</v>
+        <v>10277</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8802.883283708925</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9349.866977967127</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11020.20985094763</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8617.775577861317</v>
+        <v>8618</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11576.11008152998</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9777.596434602483</v>
+        <v>9778</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9075.896233912705</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11456.53711853529</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10258.88892866671</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8857.325258822484</v>
+        <v>8857</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8510.974400688368</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10481.33504623819</v>
+        <v>10481</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13937.23503476166</v>
+        <v>13937</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12914.98649350393</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12330.22151987509</v>
+        <v>12330</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15605.148756152</v>
+        <v>15605</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15415.49785171919</v>
+        <v>15415</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8663.46665808967</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10108.49280333423</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5922.005226696961</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12762.94249557814</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13848.77164448892</v>
+        <v>13849</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15198.96964926078</v>
+        <v>15199</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6246.068119746354</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5751.218776950074</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6337.317099795966</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9864.502278692093</v>
+        <v>9865</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11666.26260568193</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12146.22601964851</v>
+        <v>12146</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6900.71856252455</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8955.600002603516</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10118.54612276029</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9096.349077720302</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10336.23266918334</v>
+        <v>10336</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11662.36004179714</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10573.97123702785</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9775.91205538384</v>
+        <v>9776</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10367.65429684494</v>
+        <v>10368</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7997.833106720533</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9099.087367938442</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7363.53654209846</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5683.735070759362</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>10567.58495278275</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9695.865062224628</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9515.055022646713</v>
+        <v>9515</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9161.210228203661</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7795.669763259665</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9473.067024499878</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11289.92294811756</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8102.084427331134</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10259.4423985791</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7391.651095328491</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10140.66411228874</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10448.74731421127</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7010.590301564904</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>11082.43604187475</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8929.129674896216</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8782.217038453351</v>
+        <v>8782</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9876.390967868874</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8131.232715256723</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>11343.16869241617</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10339.06942035466</v>
+        <v>10339</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8790.628244631216</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7556.764386076225</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6697.140067026283</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4509.990733561355</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6649.863390048211</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6314.359672810284</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11388.39176630599</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6868.876320556379</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6888.087158098264</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7551.694927805964</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7458.527239955878</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7759.611231655133</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10478.19338043736</v>
+        <v>10478</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12001.14301314593</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9720.992770535013</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10882.88637957005</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12655.86208182576</v>
+        <v>12656</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6717.74936938668</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7936.553426928781</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10815.54886580386</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>9280.557464947677</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8158.90791015154</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>12664.57659700163</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6419.486976074977</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>9801.333147879264</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>9156.936991224036</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>7730.233408075374</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7514.172328149174</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10341.17726035092</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10451.60843759096</v>
+        <v>10452</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10884.3998334153</v>
+        <v>10884</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7359.986915892602</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5876.121428033065</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9219.598391508795</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>11830.25722901231</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>13662.27918456538</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7798.292245955449</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9307.66245325081</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9759.694122002225</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7099.146435647983</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9263.179298537376</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8842.458763050967</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5732.736878214613</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6675.819085515561</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>9148.732345105927</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5666.329318137227</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4107.81635549877</v>
+        <v>4108</v>
       </c>
     </row>
   </sheetData>
